--- a/asset/data_testing.xlsx
+++ b/asset/data_testing.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>LAKI-LAKI</t>
   </si>
@@ -44,9 +44,6 @@
     <t>SANGAT BAIK</t>
   </si>
   <si>
-    <t>TEPAT WAKTU</t>
-  </si>
-  <si>
     <t>ANAS</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>VIKRI</t>
   </si>
   <si>
-    <t>LAKI-LAKIBAIKSANGAT BAIKSANGAT BAIKBAIK</t>
-  </si>
-  <si>
     <t>SEPTI</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
   </si>
   <si>
     <t>ips4</t>
-  </si>
-  <si>
-    <t>keterangan</t>
   </si>
 </sst>
 </file>
@@ -501,7 +492,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -512,7 +503,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -530,36 +521,33 @@
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -567,7 +555,7 @@
         <v>2020804139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>0</v>
@@ -584,11 +572,8 @@
       <c r="H2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1">
+    <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -596,7 +581,7 @@
         <v>2020804149</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>0</v>
@@ -613,11 +598,8 @@
       <c r="H3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -625,7 +607,7 @@
         <v>2020804134</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
@@ -642,11 +624,8 @@
       <c r="H4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -654,7 +633,7 @@
         <v>2020804142</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -671,11 +650,8 @@
       <c r="H5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -683,7 +659,7 @@
         <v>2020804137</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>0</v>
@@ -699,15 +675,10 @@
       </c>
       <c r="H6" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/asset/data_testing.xlsx
+++ b/asset/data_testing.xlsx
@@ -59,28 +59,28 @@
     <t>SEPTI</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>npm</t>
-  </si>
-  <si>
-    <t>nama</t>
-  </si>
-  <si>
-    <t>jk</t>
-  </si>
-  <si>
-    <t>ips1</t>
-  </si>
-  <si>
-    <t>ips2</t>
-  </si>
-  <si>
-    <t>ips3</t>
-  </si>
-  <si>
-    <t>ips4</t>
+    <t>no.</t>
+  </si>
+  <si>
+    <t>np_m</t>
+  </si>
+  <si>
+    <t>nama_siswa</t>
+  </si>
+  <si>
+    <t>jenis_k</t>
+  </si>
+  <si>
+    <t>ips_1</t>
+  </si>
+  <si>
+    <t>ips_2</t>
+  </si>
+  <si>
+    <t>ips_3</t>
+  </si>
+  <si>
+    <t>ips_4</t>
   </si>
 </sst>
 </file>
@@ -155,16 +155,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,7 +492,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,7 +503,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/asset/data_testing.xlsx
+++ b/asset/data_testing.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Semester 8\Semangat Buat S2\Program\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D95BCDC-EDC4-4903-B058-CAF8E654BDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{77EFE717-D937-422B-9D5D-A3D59FE3E6C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,11 +36,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="90">
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Varibel Prediktor / Atribut</t>
+  </si>
+  <si>
+    <t>Total Data :</t>
+  </si>
+  <si>
+    <t>Variabel Target</t>
+  </si>
+  <si>
+    <t>Data Training</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NPM</t>
+  </si>
+  <si>
+    <t>NAMA</t>
+  </si>
+  <si>
+    <t>JENIS KELAMIN</t>
+  </si>
+  <si>
+    <t>IPS 1</t>
+  </si>
+  <si>
+    <t>IPS 2</t>
+  </si>
+  <si>
+    <t>IPS 3</t>
+  </si>
+  <si>
+    <t>IPS 4</t>
+  </si>
+  <si>
+    <t>KETERANGAN</t>
+  </si>
   <si>
     <t>LAKI-LAKI</t>
   </si>
   <si>
+    <t>CUKUP</t>
+  </si>
+  <si>
     <t>BAIK</t>
   </si>
   <si>
@@ -44,6 +95,21 @@
     <t>SANGAT BAIK</t>
   </si>
   <si>
+    <t>AHMAD</t>
+  </si>
+  <si>
+    <t>TEPAT WAKTU</t>
+  </si>
+  <si>
+    <t>MELI</t>
+  </si>
+  <si>
+    <t>M.</t>
+  </si>
+  <si>
+    <t>MUHAMAD</t>
+  </si>
+  <si>
     <t>ANAS</t>
   </si>
   <si>
@@ -53,41 +119,200 @@
     <t>EFI</t>
   </si>
   <si>
+    <t>RANGGA</t>
+  </si>
+  <si>
     <t>VIKRI</t>
   </si>
   <si>
+    <t>PAJAR</t>
+  </si>
+  <si>
+    <t>ARYA</t>
+  </si>
+  <si>
+    <t>DATA TESTING/UJI (20% dari Data All)</t>
+  </si>
+  <si>
+    <t>LAKI-LAKIBAIKBAIKSANGAT BAIKBAIK</t>
+  </si>
+  <si>
+    <t>LAKI-LAKIBAIKBAIKBAIKSANGAT BAIK</t>
+  </si>
+  <si>
+    <t>LAKI-LAKICUKUPBAIKBAIKBAIK</t>
+  </si>
+  <si>
+    <t>PEREMPUANCUKUPBAIKSANGAT BAIKBAIK</t>
+  </si>
+  <si>
+    <t>LAKI-LAKIBAIKSANGAT BAIKSANGAT BAIKBAIK</t>
+  </si>
+  <si>
+    <t>LAKI-LAKICUKUPBAIKBAIKSANGAT BAIK</t>
+  </si>
+  <si>
+    <t>LAKI-LAKIBAIKBAIKSANGAT BAIKSANGAT BAIK</t>
+  </si>
+  <si>
+    <t>LAKI-LAKISANGAT BAIKSANGAT BAIKSANGAT BAIKBAIK</t>
+  </si>
+  <si>
+    <t>LAKI-LAKIBAIKCUKUPSANGAT BAIKBAIK</t>
+  </si>
+  <si>
+    <t>PEREMPUANSANGAT BAIKSANGAT BAIKSANGAT BAIKBAIK</t>
+  </si>
+  <si>
+    <t>LAKI-LAKIBAIKSANGAT BAIKSANGAT BAIKSANGAT BAIK</t>
+  </si>
+  <si>
+    <t>PEREMPUANBAIKSANGAT BAIKSANGAT BAIKBAIK</t>
+  </si>
+  <si>
+    <t>LAKI-LAKISANGAT BAIKSANGAT BAIKSANGAT BAIKSANGAT BAIK</t>
+  </si>
+  <si>
+    <t>PEREMPUANBAIKSANGAT BAIKSANGAT BAIKSANGAT BAIK</t>
+  </si>
+  <si>
+    <t>PEREMPUANSANGAT BAIKSANGAT BAIKSANGAT BAIKSANGAT BAIK</t>
+  </si>
+  <si>
+    <t>PEREMPUANSANGAT BAIKBAIKSANGAT BAIKSANGAT BAIK</t>
+  </si>
+  <si>
+    <t>LAKI-LAKIBAIKSANGAT BAIKBAIKSANGAT BAIK</t>
+  </si>
+  <si>
+    <t>LAKI-LAKICUKUPSANGAT BAIKSANGAT BAIKSANGAT BAIK</t>
+  </si>
+  <si>
+    <t>TERLAMBAT</t>
+  </si>
+  <si>
+    <t>BERLIANA</t>
+  </si>
+  <si>
+    <t>UMI</t>
+  </si>
+  <si>
+    <t>POPY</t>
+  </si>
+  <si>
+    <t>ANDRIANTO</t>
+  </si>
+  <si>
+    <t>HERI</t>
+  </si>
+  <si>
+    <t>KURANG</t>
+  </si>
+  <si>
+    <t>SEBASTIAN</t>
+  </si>
+  <si>
+    <t>KHOIRUL</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>FAIZ</t>
+  </si>
+  <si>
+    <t>KRISNA</t>
+  </si>
+  <si>
+    <t>SIGIH</t>
+  </si>
+  <si>
+    <t>IRVAN</t>
+  </si>
+  <si>
+    <t>RIKARDO</t>
+  </si>
+  <si>
+    <t>TAUFIK</t>
+  </si>
+  <si>
+    <t>DONI</t>
+  </si>
+  <si>
+    <t>GUSTAF</t>
+  </si>
+  <si>
+    <t>YOGASWARA</t>
+  </si>
+  <si>
+    <t>PUTRA</t>
+  </si>
+  <si>
+    <t>WARTANI</t>
+  </si>
+  <si>
+    <t>ALDIANSYAH</t>
+  </si>
+  <si>
+    <t>ALIF</t>
+  </si>
+  <si>
+    <t>AZAHELI</t>
+  </si>
+  <si>
+    <t>SYAHRUL</t>
+  </si>
+  <si>
+    <t>KURDI</t>
+  </si>
+  <si>
+    <t>ALDIO</t>
+  </si>
+  <si>
+    <t>WALID</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>NAUFAL</t>
+  </si>
+  <si>
+    <t>YEMIMA</t>
+  </si>
+  <si>
+    <t>DERESTA</t>
+  </si>
+  <si>
+    <t>KEMIH</t>
+  </si>
+  <si>
+    <t>HASRANI</t>
+  </si>
+  <si>
+    <t>ANITA</t>
+  </si>
+  <si>
+    <t>SABILLA</t>
+  </si>
+  <si>
+    <t>EKA</t>
+  </si>
+  <si>
+    <t>FITRI</t>
+  </si>
+  <si>
+    <t>ARI</t>
+  </si>
+  <si>
     <t>SEPTI</t>
-  </si>
-  <si>
-    <t>no.</t>
-  </si>
-  <si>
-    <t>np_m</t>
-  </si>
-  <si>
-    <t>nama_siswa</t>
-  </si>
-  <si>
-    <t>jenis_k</t>
-  </si>
-  <si>
-    <t>ips_1</t>
-  </si>
-  <si>
-    <t>ips_2</t>
-  </si>
-  <si>
-    <t>ips_3</t>
-  </si>
-  <si>
-    <t>ips_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,13 +329,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -119,7 +366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -151,21 +404,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -226,7 +491,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -278,7 +543,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -492,193 +757,1693 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061DC69E-3BED-4570-BB61-8FF0B74F3EF4}">
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="17.125" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.75" customWidth="1"/>
-    <col min="10" max="10" width="54.75" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.7265625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>170</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <f>20%*B2</f>
+        <v>34</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="F5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="I5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
-      <c r="A2" s="2">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="11">
         <v>2020804139</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2020804149</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>3</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2020804134</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2020804142</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2020804149</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="11">
+        <v>2020804137</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>6</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="11">
+        <v>2020804047</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2020804134</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2020804078</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2020804142</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2020804137</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>1</v>
+      <c r="B13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2020804133</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>9</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2020804016</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="10">
+        <v>10</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2020804083</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="10">
+        <v>11</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="11">
+        <v>2020804005</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="10">
+        <v>12</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="11">
+        <v>2020804141</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>13</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="11">
+        <v>2020804046</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>14</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="11">
+        <v>2020804074</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>15</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2020804063</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>16</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2020804030</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>17</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2020804068</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>18</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="11">
+        <v>2020804082</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>19</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="11">
+        <v>2020804053</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>20</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2020804092</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>21</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2020804113</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
+        <v>22</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="11">
+        <v>2020804132</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>23</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="11">
+        <v>2020804148</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
+        <v>24</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2020804097</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="10">
+        <v>25</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="11">
+        <v>2020804050</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="10">
+        <v>26</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="11">
+        <v>2020804107</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="10">
+        <v>27</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="11">
+        <v>2020804036</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="10">
+        <v>28</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="11">
+        <v>2020804071</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="10">
+        <v>29</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="11">
+        <v>2020804038</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="10">
+        <v>30</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="11">
+        <v>2020804001</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="10">
+        <v>31</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="11">
+        <v>2020804007</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="10">
+        <v>32</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="11">
+        <v>2020804010</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="10">
+        <v>33</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="11">
+        <v>2020804084</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="10">
+        <v>34</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="11">
+        <v>2020804023</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="10">
+        <v>35</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="11">
+        <v>2020804167</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A41" s="10">
+        <v>36</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="11">
+        <v>2020804070</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A42" s="10">
+        <v>37</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="11">
+        <v>2020804114</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A43" s="10">
+        <v>38</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="11">
+        <v>2020804031</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A44" s="10">
+        <v>39</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="11">
+        <v>2020804094</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A45" s="10">
+        <v>40</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="11">
+        <v>2020804161</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A46" s="10">
+        <v>41</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="11">
+        <v>2020804027</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" s="10">
+        <v>42</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="11">
+        <v>2020804028</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" s="10">
+        <v>43</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="11">
+        <v>2020804009</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I48" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="10">
+        <v>44</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="11">
+        <v>2020804041</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="10">
+        <v>45</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="11">
+        <v>2020804126</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="10">
+        <v>46</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="11">
+        <v>2020804106</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="10">
+        <v>47</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="11">
+        <v>2020804112</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="10">
+        <v>48</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C53" s="11">
+        <v>2020804034</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="10">
+        <v>49</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="11">
+        <v>2020804035</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="10">
+        <v>50</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="11">
+        <v>2020804015</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="10">
+        <v>51</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="11">
+        <v>2020804067</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>